--- a/biology/Botanique/Rosidae/Rosidae.xlsx
+++ b/biology/Botanique/Rosidae/Rosidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-classe des Rosidae, écrite aussi Rosiidae, regroupe des plantes dicotylédones. Avec plus de 100 familles et plus de 50 000 espèces, les Rosidae sont la seconde sous-classe des Magnolopsides, représentant à elle seule plus du quart des plantes à fleurs. 
-Six familles forment à elles seules plus de la moitié des effectifs : les Fabaceae, les Euphorbiaceae, les Rosaceae, les Myrtaceae, les Melastomataceae et les Apiaceae, familles comptant chacune entre 3 000 et 12 000 espèces[2]. 
+Six familles forment à elles seules plus de la moitié des effectifs : les Fabaceae, les Euphorbiaceae, les Rosaceae, les Myrtaceae, les Melastomataceae et les Apiaceae, familles comptant chacune entre 3 000 et 12 000 espèces. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rosidae forment un grand taxon par enchaînement : très hétérogène, il ne présente pas de caractères généraux évidents[3]. 
-Cette sous-classe correspond à des Magnolopsides moyennes. Leurs feuilles sont à l'origine composées et pennées, mais elles tendent à devenir simples. Elles ont un périanthe définitivement différencié (fleur hétérochlamyde), pentamère ou tétramère. Le réceptacle tend à se développer en un plateau, une coupe ou une urne et à entourer les carpelles jusqu'à réaliser chez les espèces les plus évoluées une inférovarie parfaite, ce qui explique son ancienne classification dans les disciflores. Les fleurs sont cycliques, dialypétales (rarement devenues secondairement apétales ou soudées en corolle gamopétale, ce qui était assez fréquent chez les Dilleniidae), (tétra-) pentamères, avec une tendance à la zygomorphie favorisant la pollinisation entomophile. L'androcée diplostémone est composé d'étamines libres. Les carpelles ont tendance à se souder en un ovaire composé. La placentation axile se généralise. Les ovules sont bitégumentés et crassinucellés, la graine est encore albuminée[4].
-Les Rosidae primitives ont encore des carpelles libres (Rosales, Fabales). Puis se sont différenciées[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rosidae forment un grand taxon par enchaînement : très hétérogène, il ne présente pas de caractères généraux évidents. 
+Cette sous-classe correspond à des Magnolopsides moyennes. Leurs feuilles sont à l'origine composées et pennées, mais elles tendent à devenir simples. Elles ont un périanthe définitivement différencié (fleur hétérochlamyde), pentamère ou tétramère. Le réceptacle tend à se développer en un plateau, une coupe ou une urne et à entourer les carpelles jusqu'à réaliser chez les espèces les plus évoluées une inférovarie parfaite, ce qui explique son ancienne classification dans les disciflores. Les fleurs sont cycliques, dialypétales (rarement devenues secondairement apétales ou soudées en corolle gamopétale, ce qui était assez fréquent chez les Dilleniidae), (tétra-) pentamères, avec une tendance à la zygomorphie favorisant la pollinisation entomophile. L'androcée diplostémone est composé d'étamines libres. Les carpelles ont tendance à se souder en un ovaire composé. La placentation axile se généralise. Les ovules sont bitégumentés et crassinucellés, la graine est encore albuminée.
+Les Rosidae primitives ont encore des carpelles libres (Rosales, Fabales). Puis se sont différenciées : 
 des Rosidae dont les carpelles se sont soudés entre eux, et généralement à la coupe florale (Myrtales...) ;
 des Rosidae caractérisées par la présence d'un disque nectarifère, à carpelles soudés formant un ovaire supère (Celastrales, Rhamnales...) ;
 enfin des Rosidae dont l'ovaire, se soudant à la coupe florale, devient infère (Apiales).
@@ -549,9 +563,11 @@
           <t>Classification Cronquist</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[5] elle regroupe 18 ordres :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) elle regroupe 18 ordres :
 sous-classe Rosidae
 ordre Apiales
 ordre Celastrales
@@ -571,7 +587,7 @@
 ordre Rosales
 ordre Santalales
 ordre Sapindales
-En classification phylogénétique APG II (2003)[6] et en classification phylogénétique APG III (2009)[7], cette sous-classe, nommée rosids en anglais, est devenue un clade et est plus volontiers nommée sous son nom français Rosidées. Ayant un contenu bien différent en APG III, rosidées est décrit dans un autre article.
+En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009), cette sous-classe, nommée rosids en anglais, est devenue un clade et est plus volontiers nommée sous son nom français Rosidées. Ayant un contenu bien différent en APG III, rosidées est décrit dans un autre article.
 </t>
         </is>
       </c>
